--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\hungarian-algorithm-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57550B-C398-4BDF-ACE8-5EEFB91DB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDB8A9-F320-4C46-9211-F9FB8D7506F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,31 +27,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>seed=42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50x50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100x100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200x200</t>
+    <t>10x10 seed 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20x20 seed 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50x50 seed 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100x100 seed 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x200 seed 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance(工人数x任务数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,43 +379,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.39</v>
       </c>
     </row>
   </sheetData>

--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\hungarian-algorithm-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDB8A9-F320-4C46-9211-F9FB8D7506F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F9B97F-D63E-489F-98AB-A21488E9CB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,11 +47,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>runtime(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance(工人数x任务数)</t>
+    <t>instance(车辆数x任务数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime(sec)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,20 +380,21 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/runtime.xlsx
+++ b/runtime.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitcloud\hungarian-algorithm-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F9B97F-D63E-489F-98AB-A21488E9CB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31FFC3-ACD2-4AD3-9A96-54AF5EA231D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>10x10 seed 42</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +53,16 @@
   </si>
   <si>
     <t>runtime(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub - ssfc/hungarian-algorithm-cpp: c++ version of hungarian algorithm</t>
+  </si>
+  <si>
+    <t>https://github.com/ssfc/hungarian-algorithm</t>
+  </si>
+  <si>
+    <t>500x500 seed 42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +83,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,14 +111,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -389,15 +411,18 @@
     <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -405,7 +430,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -413,7 +438,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -421,7 +446,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -429,17 +454,99 @@
         <v>2.153</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" display="https://github.com/ssfc/hungarian-algorithm-cpp" xr:uid="{BF120A08-A581-404A-A1A3-E3F02F21D3F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A7FF17-7D25-4DA9-BA1A-A93FD9E9D1C8}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>